--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3490472.738410281</v>
+        <v>3483455.723518569</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>720112.0355324722</v>
+        <v>601133.8116973122</v>
       </c>
     </row>
     <row r="8">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>309.9758884008012</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>307.7676307244763</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498675</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>11.00429467105817</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>101.7806877295492</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,7 +913,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>301.8622236992999</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>178.818083612641</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>213.9154470216037</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>183.3785310380803</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>150.8400357509153</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1299,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>68.19029374363622</v>
+        <v>134.9198292231117</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113198</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.2714703996740809</v>
       </c>
       <c r="U13" t="n">
-        <v>24.77826559155664</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>33.35146980185857</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>146.1854691670925</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1903,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.3875294998705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2134,10 +2134,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>160.397924559901</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>135.9622846212857</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>237.6821551249385</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>84.83831713889268</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>8.576299198036967</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>33.06963601466263</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>247.5484684357339</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>58.40168825977442</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>181.8655369746286</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>283.4048578956733</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>23.78613812585257</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3954,7 +3954,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>202.9124802688319</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1314.38774159731</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="C2" t="n">
-        <v>945.4252246568988</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="D2" t="n">
-        <v>945.4252246568988</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4327,55 +4327,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1704.527073573122</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y2" t="n">
-        <v>1314.38774159731</v>
+        <v>936.2491605982761</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65.05843098304948</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>65.05843098304948</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>65.05843098304948</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>65.05843098304948</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>65.05843098304948</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>65.05843098304948</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X4" t="n">
-        <v>285.8510101265796</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y4" t="n">
-        <v>65.05843098304948</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1134.473993239633</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="C5" t="n">
-        <v>765.5114762992212</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>765.5114762992212</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>379.7232237009769</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>372.7777229517735</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>358.8543188903644</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2516.524764136767</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2262.762978774858</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>1931.700091431288</v>
       </c>
       <c r="W5" t="n">
-        <v>1894.539591564834</v>
+        <v>1578.931436161173</v>
       </c>
       <c r="X5" t="n">
-        <v>1521.073833303755</v>
+        <v>1205.465677900094</v>
       </c>
       <c r="Y5" t="n">
-        <v>1521.073833303755</v>
+        <v>1205.465677900094</v>
       </c>
     </row>
     <row r="6">
@@ -4640,22 +4640,22 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>222.8791647482714</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>991.2778500677825</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>991.2778500677825</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>806.0470106353782</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036446</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,7 +4819,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4834,22 +4834,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304456</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598976</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>1364.743608328862</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X8" t="n">
-        <v>991.2778500677825</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>991.2778500677825</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,19 +4883,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>438.7118141694739</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="C10" t="n">
-        <v>438.7118141694739</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="D10" t="n">
-        <v>438.7118141694739</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036446</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694739</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694739</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.7118141694739</v>
+        <v>473.4444960005475</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805491</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514097</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515098</v>
@@ -5074,19 +5074,19 @@
         <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028589</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>280.6570073165058</v>
+        <v>388.8958536704857</v>
       </c>
       <c r="L12" t="n">
-        <v>894.5540770733946</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M12" t="n">
-        <v>1214.889396603096</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N12" t="n">
-        <v>1559.410052240715</v>
+        <v>1743.605857332687</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.2699138005286</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028589</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028589</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028589</v>
@@ -5205,7 +5205,7 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471194</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.64205803298</v>
       </c>
       <c r="U13" t="n">
-        <v>1362.812616017146</v>
+        <v>1498.64205803298</v>
       </c>
       <c r="V13" t="n">
-        <v>1108.128127811259</v>
+        <v>1243.957569827093</v>
       </c>
       <c r="W13" t="n">
-        <v>818.7109577742984</v>
+        <v>954.5403997901319</v>
       </c>
       <c r="X13" t="n">
-        <v>818.7109577742984</v>
+        <v>726.5508488921146</v>
       </c>
       <c r="Y13" t="n">
-        <v>597.9183786307683</v>
+        <v>505.7582697485844</v>
       </c>
     </row>
     <row r="14">
@@ -5254,58 +5254,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L15" t="n">
-        <v>738.0704661731477</v>
+        <v>1039.795319932215</v>
       </c>
       <c r="M15" t="n">
-        <v>1058.405785702849</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="N15" t="n">
-        <v>1402.926441340468</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>130.9054447954965</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C16" t="n">
-        <v>130.9054447954965</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D16" t="n">
-        <v>130.9054447954965</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E16" t="n">
-        <v>130.9054447954965</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F16" t="n">
-        <v>130.9054447954965</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>130.9054447954965</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>130.9054447954965</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324571</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954965</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X16" t="n">
-        <v>130.9054447954965</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.9054447954965</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5515,19 +5515,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>877.4353633695368</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M18" t="n">
-        <v>1197.770682899239</v>
+        <v>629.3975440735812</v>
       </c>
       <c r="N18" t="n">
-        <v>1559.410052240715</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>821.846685011157</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>821.846685011157</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.712528333286</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1098.712528333286</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>1098.712528333286</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>870.7229774352686</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>821.846685011157</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5749,7 +5749,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823786</v>
@@ -5761,7 +5761,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5770,19 +5770,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
         <v>4262.357857465301</v>
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028583</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>711.1141612171745</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>1479.482307609636</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>1824.002963247254</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>2145.820610447073</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5943,19 +5943,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>913.1927396468989</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>913.1927396468989</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>913.1927396468989</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>685.2031887488815</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>685.2031887488815</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5986,7 +5986,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823786</v>
@@ -6007,16 +6007,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028583</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>673.2354924036337</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>1441.603638796095</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1771.466266460128</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6642370999739</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>402.728054172067</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>402.728054172067</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347408</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>1020.446367141521</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W25" t="n">
-        <v>1020.446367141521</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>792.456816243504</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>571.6642370999739</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,19 +6205,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6308,22 +6308,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>711.1141612171745</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1479.482307609636</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>1479.482307609636</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2148.946068912295</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>874.9271131227918</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>620.2426249169049</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>330.8254548799443</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>330.8254548799443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>330.8254548799443</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6460,16 +6460,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6481,13 +6481,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263798</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K30" t="n">
-        <v>2786.879505108311</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>2786.879505108311</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>3326.569534338268</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>3671.090189975886</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>4340.553951278545</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3907.603135363461</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="C31" t="n">
-        <v>3907.603135363461</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="D31" t="n">
-        <v>3757.486495951126</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="E31" t="n">
-        <v>3609.573402368732</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="F31" t="n">
-        <v>3609.573402368732</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="G31" t="n">
-        <v>3609.573402368732</v>
+        <v>217.414611321204</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014292</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U31" t="n">
-        <v>4860.854573014292</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V31" t="n">
-        <v>4827.450900272209</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W31" t="n">
-        <v>4538.033730235248</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X31" t="n">
-        <v>4310.044179337231</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="Y31" t="n">
-        <v>4089.251600193701</v>
+        <v>385.5899330013834</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,10 +6718,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6782,19 +6782,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>711.1141612171745</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1479.482307609636</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1479.482307609636</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
         <v>2623.573505376138</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>732.358329063101</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>914.0067938933407</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>914.0067938933407</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>914.0067938933407</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>914.0067938933407</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>914.0067938933407</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,34 +6916,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6955,31 +6955,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>287.7778528277033</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>944.6756850271186</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>1749.087263291269</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>2418.551024593929</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>581.2185435662825</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C37" t="n">
-        <v>412.2823606383756</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D37" t="n">
-        <v>412.2823606383756</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E37" t="n">
-        <v>412.2823606383756</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F37" t="n">
         <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="U37" t="n">
-        <v>1275.130855347408</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="V37" t="n">
-        <v>1275.130855347408</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="W37" t="n">
-        <v>985.7136853104475</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X37" t="n">
-        <v>802.0111227098126</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y37" t="n">
-        <v>581.2185435662825</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="38">
@@ -7165,7 +7165,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
@@ -7174,16 +7174,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619129</v>
@@ -7201,7 +7201,7 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>2745.388427942954</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>3359.285497699843</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>3789.827608363647</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>4134.348264001265</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>4383.101678085228</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>4565.745155698579</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
         <v>97.21709146028587</v>
@@ -7365,19 +7365,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>245.130185042679</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7390,19 +7390,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
@@ -7411,10 +7411,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7432,7 +7432,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7493,22 +7493,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>246.2867756623457</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>493.0519035688097</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>808.8370773579852</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3869.021087329178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>3869.021087329178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3869.021087329178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4836.828170866967</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4636.908160782519</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>4413.122745572025</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>4413.122745572025</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>4158.438257366139</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>3869.021087329178</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>3869.021087329178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>3869.021087329178</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7654,22 +7654,22 @@
         <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7730,22 +7730,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>263.5382936126482</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>493.5013994809973</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>1261.869545873459</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
-        <v>1606.390201511077</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1855.143615595039</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>413.0432218861031</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1020.446367141521</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>1020.446367141521</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>815.4842658598729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>594.6916867163428</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>34.71740571127268</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8792,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9017,19 +9017,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>264.6493710622029</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9263,10 +9263,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,19 +9728,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,19 +9965,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>315.3057398871879</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,25 +10190,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>234.717066616157</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,13 +10439,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10679,16 +10679,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>461.1089569413875</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11390,16 +11390,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>221.2760906587152</v>
       </c>
       <c r="U13" t="n">
-        <v>261.4590868070207</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>77.06777566241342</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>140.3375291694985</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23895,22 +23895,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>170.1971238522243</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>125.8394278386764</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24366,19 +24366,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>10.47167802528344</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,19 +24414,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>48.8408432116525</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>94.99366304304462</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.3375291694992</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>219.0680073091654</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>38.68888396284348</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>51.56266414401838</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>43.8441184144086</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>3.118140440917728</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>86.17821427794024</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>22.79717512020522</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278762</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.3075278761</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.3075278761</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.3075278761</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278761</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.504384641</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846413</v>
       </c>
       <c r="E2" t="n">
         <v>664749.4015541045</v>
       </c>
       <c r="F2" t="n">
-        <v>664749.4015541044</v>
+        <v>664749.4015541045</v>
       </c>
       <c r="G2" t="n">
-        <v>664749.4015541044</v>
+        <v>664749.4015541043</v>
       </c>
       <c r="H2" t="n">
+        <v>664749.4015541045</v>
+      </c>
+      <c r="I2" t="n">
         <v>664749.4015541046</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="K2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="L2" t="n">
         <v>664749.4015541045</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="N2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="O2" t="n">
         <v>664749.4015541045</v>
       </c>
-      <c r="K2" t="n">
+      <c r="P2" t="n">
         <v>664749.4015541048</v>
-      </c>
-      <c r="L2" t="n">
-        <v>664749.4015541046</v>
-      </c>
-      <c r="M2" t="n">
-        <v>664749.4015541046</v>
-      </c>
-      <c r="N2" t="n">
-        <v>664749.4015541046</v>
-      </c>
-      <c r="O2" t="n">
-        <v>664749.4015541046</v>
-      </c>
-      <c r="P2" t="n">
-        <v>664749.4015541049</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26426,40 +26426,40 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758024</v>
+        <v>787.7936905757467</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758219</v>
       </c>
       <c r="G4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="H4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905759185</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
+        <v>787.7936905759301</v>
+      </c>
+      <c r="L4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="L4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="M4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905759102</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26469,40 +26469,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-114000.5920739319</v>
+        <v>-114000.5920739321</v>
       </c>
       <c r="C6" t="n">
-        <v>475967.2871406126</v>
+        <v>475967.2871406124</v>
       </c>
       <c r="D6" t="n">
-        <v>475967.2871406127</v>
+        <v>475967.2871406128</v>
       </c>
       <c r="E6" t="n">
-        <v>46814.24543791567</v>
+        <v>45839.6541781941</v>
       </c>
       <c r="F6" t="n">
-        <v>571974.2819148123</v>
+        <v>570999.6906550904</v>
       </c>
       <c r="G6" t="n">
-        <v>571974.2819148119</v>
+        <v>570999.6906550904</v>
       </c>
       <c r="H6" t="n">
-        <v>571974.2819148122</v>
+        <v>570999.6906550904</v>
       </c>
       <c r="I6" t="n">
-        <v>571974.281914812</v>
+        <v>570999.6906550905</v>
       </c>
       <c r="J6" t="n">
-        <v>395551.062722219</v>
+        <v>394576.4714624975</v>
       </c>
       <c r="K6" t="n">
-        <v>571974.2819148123</v>
+        <v>570999.6906550904</v>
       </c>
       <c r="L6" t="n">
-        <v>571974.2819148122</v>
+        <v>570999.6906550904</v>
       </c>
       <c r="M6" t="n">
-        <v>437173.2666809749</v>
+        <v>436198.6754212535</v>
       </c>
       <c r="N6" t="n">
-        <v>571974.2819148122</v>
+        <v>570999.6906550906</v>
       </c>
       <c r="O6" t="n">
-        <v>571974.2819148122</v>
+        <v>570999.6906550904</v>
       </c>
       <c r="P6" t="n">
-        <v>571974.2819148124</v>
+        <v>570999.6906550906</v>
       </c>
     </row>
   </sheetData>
@@ -26740,16 +26740,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541005</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>71.9544816714606</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>99.10841501723513</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27554,7 +27554,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>145.166594170737</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27587,7 +27587,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>123.928967659488</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>22.06054906505722</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>37.63023674501682</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>38.22219630222429</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>171.3045105826027</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>218.8910649275537</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,22 +28019,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>78.24366890293295</v>
+        <v>11.51413342345751</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,10 +28070,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28098,16 +28098,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-2.121955025484504e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,10 +28140,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31132,7 +31132,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31150,7 +31150,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034982</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,19 +31357,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31378,28 +31378,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>167.900586832999</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>11.76595806653305</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>149.897181251634</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
         <v>34.18755300444946</v>
@@ -31773,13 +31773,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647497</v>
@@ -31794,7 +31794,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>383.00626043718</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
         <v>45.03122946298631</v>
@@ -31922,10 +31922,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
         <v>234.725964217132</v>
@@ -31934,7 +31934,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,13 +31946,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>304.7725795546133</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>368.1415411704423</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32314,31 +32314,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>17.29163000389707</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
@@ -32551,10 +32551,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358985</v>
@@ -32563,16 +32563,16 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O21" t="n">
-        <v>73.8022556725831</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
@@ -32788,22 +32788,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>349.5508031060593</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -32812,7 +32812,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677464</v>
@@ -32970,7 +32970,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S26" t="n">
         <v>76.06970478104648</v>
@@ -33028,7 +33028,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358985</v>
@@ -33037,19 +33037,19 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
@@ -33262,25 +33262,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -33444,7 +33444,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S32" t="n">
         <v>76.06970478104648</v>
@@ -33499,10 +33499,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
@@ -33511,13 +33511,13 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
-        <v>378.8254161078719</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -33681,7 +33681,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S35" t="n">
         <v>76.06970478104648</v>
@@ -33736,31 +33736,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>339.9621340098116</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33894,7 +33894,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33906,7 +33906,7 @@
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927201</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
         <v>562.4526372540886</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>111.3199910445478</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -33994,10 +33994,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
@@ -34155,7 +34155,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
         <v>76.06970478104648</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,19 +34219,19 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
@@ -34374,7 +34374,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
@@ -34392,7 +34392,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S44" t="n">
         <v>76.06970478104648</v>
@@ -34450,28 +34450,28 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>293.6131261131662</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34780,7 +34780,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
@@ -35421,19 +35421,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>185.292844299212</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>634.2723352694651</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056037</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>537.0585450781983</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>619.4076160027274</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>122.5153371401846</v>
       </c>
       <c r="N18" t="n">
-        <v>365.2922922641173</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
@@ -36211,16 +36211,16 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O21" t="n">
-        <v>325.0683305048682</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>581.8367686296443</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594834</v>
@@ -36685,16 +36685,16 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>181.3313324728576</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>545.1414436666232</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
@@ -37159,13 +37159,13 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>630.091490940157</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>663.5331638377932</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37554,7 +37554,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
@@ -37630,19 +37630,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>434.8910208725294</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>318.9749230193692</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>478.1014873387731</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3483455.723518569</v>
+        <v>3488394.986367602</v>
       </c>
     </row>
     <row r="7">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>237.1298127151658</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>307.7676307244763</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498675</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>101.7806877295492</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>226.9826617785162</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>178.818083612641</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>83.58354151325305</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>150.8400357509153</v>
+        <v>298.3654036477785</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>134.9198292231117</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206821</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113198</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2714703996740809</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>222.6103375518736</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>122.65197883716</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,16 +1824,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>146.1854691670925</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1903,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>143.3158222056515</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2134,7 +2134,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>77.7414640267985</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2529,22 +2529,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>237.6821551249385</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,16 +2772,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>71.18858666156088</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>8.576299198036967</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3009,13 +3009,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>58.40168825977442</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151917</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3954,7 +3954,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185854</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982761</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982761</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>936.2491605982761</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>936.2491605982761</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4327,16 +4327,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,10 +4348,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982761</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982761</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4430,22 +4430,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5276295785111</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>818.8658378359718</v>
+        <v>843.3415311720269</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>843.3415311720269</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2516.524764136767</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2262.762978774858</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1931.700091431288</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>1578.931436161173</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>1205.465677900094</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y5" t="n">
-        <v>1205.465677900094</v>
+        <v>1229.941371236149</v>
       </c>
     </row>
     <row r="6">
@@ -4649,7 +4649,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
         <v>670.8219208598708</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>643.7011644960776</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>643.7011644960776</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X7" t="n">
-        <v>625.3202087220412</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>2340.741205944899</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>2340.741205944899</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>473.4444960005475</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>473.4444960005475</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>473.4444960005475</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005475</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005475</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>473.4444960005475</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>473.4444960005475</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805491</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514097</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5108,31 +5108,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K12" t="n">
-        <v>388.8958536704857</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>618.8589595388348</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M12" t="n">
-        <v>939.1942790685366</v>
+        <v>897.6601296826479</v>
       </c>
       <c r="N12" t="n">
-        <v>1743.605857332687</v>
+        <v>1702.071707946799</v>
       </c>
       <c r="O12" t="n">
         <v>2371.535469249458</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>505.7582697485844</v>
+        <v>673.9335914287639</v>
       </c>
       <c r="C13" t="n">
-        <v>505.7582697485844</v>
+        <v>673.9335914287639</v>
       </c>
       <c r="D13" t="n">
-        <v>355.6416303362487</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6416303362487</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
         <v>208.7516828383384</v>
@@ -5196,19 +5196,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.64205803298</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.64205803298</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V13" t="n">
-        <v>1243.957569827093</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="W13" t="n">
-        <v>954.5403997901319</v>
+        <v>673.9335914287639</v>
       </c>
       <c r="X13" t="n">
-        <v>726.5508488921146</v>
+        <v>673.9335914287639</v>
       </c>
       <c r="Y13" t="n">
-        <v>505.7582697485844</v>
+        <v>673.9335914287639</v>
       </c>
     </row>
     <row r="14">
@@ -5275,37 +5275,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>1039.795319932215</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>1808.163466324677</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N15" t="n">
-        <v>1808.163466324677</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247865</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383447</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>675.0071030383447</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>527.3450129705744</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>527.3450129705744</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y16" t="n">
-        <v>527.3450129705744</v>
+        <v>221.1079791745888</v>
       </c>
     </row>
     <row r="17">
@@ -5512,34 +5512,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5582,19 +5582,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K18" t="n">
         <v>508.1073603047985</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5715,10 +5715,10 @@
         <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,16 +5770,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5819,19 +5819,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K21" t="n">
         <v>508.1073603047985</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1420.389539217702</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1420.389539217702</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1131.26090043126</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>876.5764122253731</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>587.1592421884125</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5986,7 +5986,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823786</v>
@@ -6007,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,19 +6056,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K24" t="n">
         <v>508.1073603047985</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6177,22 +6177,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6250,25 +6250,25 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,10 +6302,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K27" t="n">
         <v>508.1073603047985</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>714.1745431820127</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>714.1745431820127</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="29">
@@ -6460,16 +6460,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6481,13 +6481,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6530,19 +6530,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
         <v>508.1073603047985</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>385.5899330013834</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>385.5899330013834</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>385.5899330013834</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>385.5899330013834</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>385.5899330013834</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>217.414611321204</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>675.007103038344</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>675.007103038344</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>385.5899330013834</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>385.5899330013834</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>385.5899330013834</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6885,10 +6885,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
         <v>869.3083006011506</v>
@@ -6925,49 +6925,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7004,19 +7004,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
         <v>508.1073603047985</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>265.3924131404652</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C37" t="n">
-        <v>265.3924131404652</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D37" t="n">
-        <v>265.3924131404652</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1439.9246662551</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1439.9246662551</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1439.9246662551</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1439.9246662551</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>1185.240178049213</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>895.8230080122524</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>667.8334571142351</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
-        <v>447.040877970705</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="38">
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D40" t="n">
         <v>97.21709146028587</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7432,10 +7432,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,10 +7487,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
         <v>508.1073603047985</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7645,13 +7645,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T46" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013782</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.2760906587152</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>63.91266078471745</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>57.18000134477732</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>140.3375291694985</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>75.26883114644329</v>
       </c>
     </row>
     <row r="20">
@@ -24144,10 +24144,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>120.1793459568048</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24417,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>48.8408432116525</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>180.9490566622671</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>140.3375291694992</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271366</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>51.56266414401838</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25599,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338568</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>90.9670373936882</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.307527876</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278762</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.3075278761</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846413</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="E2" t="n">
+        <v>664749.4015541042</v>
+      </c>
+      <c r="F2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="G2" t="n">
         <v>664749.4015541045</v>
       </c>
-      <c r="F2" t="n">
-        <v>664749.4015541045</v>
-      </c>
-      <c r="G2" t="n">
-        <v>664749.4015541043</v>
-      </c>
       <c r="H2" t="n">
-        <v>664749.4015541045</v>
+        <v>664749.4015541046</v>
       </c>
       <c r="I2" t="n">
         <v>664749.4015541046</v>
       </c>
       <c r="J2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="K2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="L2" t="n">
         <v>664749.4015541046</v>
-      </c>
-      <c r="K2" t="n">
-        <v>664749.4015541046</v>
-      </c>
-      <c r="L2" t="n">
-        <v>664749.4015541045</v>
       </c>
       <c r="M2" t="n">
         <v>664749.4015541049</v>
       </c>
       <c r="N2" t="n">
+        <v>664749.401554105</v>
+      </c>
+      <c r="O2" t="n">
         <v>664749.4015541048</v>
       </c>
-      <c r="O2" t="n">
-        <v>664749.4015541045</v>
-      </c>
       <c r="P2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.401554105</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905757467</v>
+        <v>787.7936905759088</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758219</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759302</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
+        <v>787.7936905759236</v>
+      </c>
+      <c r="J4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="K4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.7936905759301</v>
       </c>
       <c r="L4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905759102</v>
+        <v>787.7936905757959</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758694</v>
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
+      <c r="K5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-114000.5920739321</v>
+        <v>-114000.5920739318</v>
       </c>
       <c r="C6" t="n">
         <v>475967.2871406124</v>
       </c>
       <c r="D6" t="n">
-        <v>475967.2871406128</v>
+        <v>475967.2871406126</v>
       </c>
       <c r="E6" t="n">
-        <v>45839.6541781941</v>
+        <v>46716.78631194348</v>
       </c>
       <c r="F6" t="n">
-        <v>570999.6906550904</v>
+        <v>571876.82278884</v>
       </c>
       <c r="G6" t="n">
-        <v>570999.6906550904</v>
+        <v>571876.8227888398</v>
       </c>
       <c r="H6" t="n">
-        <v>570999.6906550904</v>
+        <v>571876.82278884</v>
       </c>
       <c r="I6" t="n">
-        <v>570999.6906550905</v>
+        <v>571876.82278884</v>
       </c>
       <c r="J6" t="n">
-        <v>394576.4714624975</v>
+        <v>395453.6035962471</v>
       </c>
       <c r="K6" t="n">
-        <v>570999.6906550904</v>
+        <v>571876.8227888402</v>
       </c>
       <c r="L6" t="n">
-        <v>570999.6906550904</v>
+        <v>571876.82278884</v>
       </c>
       <c r="M6" t="n">
-        <v>436198.6754212535</v>
+        <v>437075.8075550031</v>
       </c>
       <c r="N6" t="n">
-        <v>570999.6906550906</v>
+        <v>571876.8227888404</v>
       </c>
       <c r="O6" t="n">
-        <v>570999.6906550904</v>
+        <v>571876.8227888402</v>
       </c>
       <c r="P6" t="n">
-        <v>570999.6906550906</v>
+        <v>571876.8227888404</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545562</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>128.1430790558418</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>99.10841501723513</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>123.928967659488</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>127.7003798421667</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>37.63023674501682</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27827,22 +27827,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>141.4515639448312</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>123.9289676594881</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>218.8910649275537</v>
+        <v>71.36569703069051</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28019,10 +28019,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>11.51413342345751</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>96.68503059263386</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.121955025484504e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,10 +28140,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31369,10 +31369,10 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -31849,13 +31849,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>126.0475280469432</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>383.00626043718</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31867,10 +31867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,25 +32068,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>304.7725795546133</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -32095,19 +32095,19 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>258.0283171645705</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32970,7 +32970,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S26" t="n">
         <v>76.06970478104648</v>
@@ -33657,7 +33657,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33681,7 +33681,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
         <v>76.06970478104648</v>
@@ -34155,7 +34155,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S41" t="n">
         <v>76.06970478104648</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>126.6237980382196</v>
@@ -35497,13 +35497,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>449.6185578749248</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>634.2723352694651</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>537.0585450781983</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>442.5166783901774</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
